--- a/01-Lesson-Plans/01-Excel/2/Activities/05-Ins_CentralTendency/Solved/CentralTendency.xlsx
+++ b/01-Lesson-Plans/01-Excel/2/Activities/05-Ins_CentralTendency/Solved/CentralTendency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/05-Ins_CentralTendency/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8512a5b4b9cbd9d/UCB/temp/UCB-VIRT-DATA-PT-08-2023-U-LOLC/01-Lesson-Plans/01-Excel/2/Activities/05-Ins_CentralTendency/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74BC09B-4E71-5348-ADC2-E470ECA10FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F74BC09B-4E71-5348-ADC2-E470ECA10FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{074AE5D8-BDF9-489B-BF65-076202356B60}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean Example" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -196,22 +196,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -2840,8 +2835,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3136900" y="2146300"/>
-          <a:ext cx="4572000" cy="2743200"/>
+          <a:off x="2765425" y="2099733"/>
+          <a:ext cx="4156075" cy="2683934"/>
           <a:chOff x="3136900" y="2146300"/>
           <a:chExt cx="4572000" cy="2743200"/>
         </a:xfrm>
@@ -3048,8 +3043,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4851400" y="2150534"/>
-          <a:ext cx="4572000" cy="2743200"/>
+          <a:off x="4254500" y="2103967"/>
+          <a:ext cx="4155017" cy="2683934"/>
           <a:chOff x="3136900" y="2146300"/>
           <a:chExt cx="4572000" cy="2743200"/>
         </a:xfrm>
@@ -3203,8 +3198,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3268133" y="3852332"/>
-          <a:ext cx="4572000" cy="2743200"/>
+          <a:off x="2868083" y="3771899"/>
+          <a:ext cx="4148667" cy="2683933"/>
           <a:chOff x="3136900" y="2146300"/>
           <a:chExt cx="4572000" cy="2743200"/>
         </a:xfrm>
@@ -3358,8 +3353,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3293534" y="4648199"/>
-          <a:ext cx="4572000" cy="2743200"/>
+          <a:off x="2887134" y="4550832"/>
+          <a:ext cx="4155017" cy="2683934"/>
           <a:chOff x="3136900" y="2146300"/>
           <a:chExt cx="4572000" cy="2743200"/>
         </a:xfrm>
@@ -3782,308 +3777,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <f>SUM(A2:A31)</f>
         <v>157</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <f>COUNT(A2:A31)</f>
         <v>30</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <f>D6/D7</f>
         <v>5.2333333333333334</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <f>AVERAGE(A2:A31)</f>
         <v>5.2333333333333334</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -4098,356 +4011,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDF04A9-084C-844B-8575-F334579C420A}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <f>MEDIAN(B2:B31)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="E9">
+        <f>MEDIAN(A2:A31)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>5</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>5</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25">
         <v>8</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
       <c r="B27">
         <v>8</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28">
         <v>9</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
       <c r="B29">
         <v>9</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -4468,65 +4332,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0812124F-9E5E-8045-AC7B-048D697B08A3}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6">
         <v>1</v>
       </c>
@@ -4535,11 +4394,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7">
         <v>2</v>
       </c>
@@ -4548,12 +4407,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
@@ -4561,12 +4420,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3">
+      <c r="B9" s="3"/>
+      <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
@@ -4574,38 +4433,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <f>COUNTIF(A$2:A$31,"=5")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIF(A$2:A$31,"=6")</f>
         <v>3</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
-        <f>COUNTIF(A$2:A$31,"=5")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8">
-        <f>COUNTIF(A$2:A$31,"=6")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12">
         <v>7</v>
       </c>
       <c r="D12">
@@ -4613,12 +4472,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13">
         <v>8</v>
       </c>
       <c r="D13">
@@ -4626,12 +4485,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14">
         <v>9</v>
       </c>
       <c r="D14">
@@ -4639,11 +4498,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15">
         <v>10</v>
       </c>
@@ -4652,132 +4511,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <f>_xlfn.MODE.SNGL(A2:A31)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>7</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4793,67 +4626,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDFE5C-0ABF-A44C-A15C-1A9152000E71}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6">
         <v>1</v>
       </c>
@@ -4862,260 +4688,236 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <f>COUNTIF(A$2:A$31,"=2")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <f>COUNTIF(A$2:A$31,"=3")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3">
+      <c r="B9" s="3"/>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <f>COUNTIF(A$2:A$31,"=4")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <f>COUNTIF(A$2:A$31,"=5")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
         <f>COUNTIF(A$2:A$31,"=6")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <f>COUNTIF(A$2:A$31,"=7")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="B13" s="3"/>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
         <f>COUNTIF(A$2:A$31,"=8")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14">
         <v>9</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
         <f>COUNTIF(A$2:A$31,"=9")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15">
         <f>COUNTIF(A$2:A$31,"=10")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <f>_xlfn.MODE.SNGL(A2:A31)</f>
         <v>5</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3">
-        <f>_xlfn.MODE.SNGL(A2:A31)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" cm="1">
         <f t="array" ref="D20:D22">_xlfn.MODE.MULT(A2:A31)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="B21" s="3"/>
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>7</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
